--- a/res/Miscellaneous/hexagon-coordinates.xlsx
+++ b/res/Miscellaneous/hexagon-coordinates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10205"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/94CB5371-4C6B-42A8-9291-A80F48E43AF3/Library/Application Support/Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shane/Library/Mobile Documents/com~apple~CloudDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99E09636-B654-4B48-816F-66F12C4712D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043C16CB-0FDB-5440-97A0-0B47C993DABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>hexagon</t>
   </si>
@@ -43,12 +43,18 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>x-25</t>
+  </si>
+  <si>
+    <t>y-25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,13 +62,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,8 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,18 +419,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46FB781-59AD-EE44-84BC-95E01D8F0A40}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.01171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +442,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -425,8 +459,16 @@
       <c r="C2">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1">
+        <f>B2-25</f>
+        <v>712</v>
+      </c>
+      <c r="E2" s="2">
+        <f>C2-25</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -436,8 +478,16 @@
       <c r="C3">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D62" si="0">B3-25</f>
+        <v>825</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E62" si="1">C3-25</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -447,8 +497,16 @@
       <c r="C4">
         <v>155</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>937</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -458,8 +516,16 @@
       <c r="C5">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1048</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -469,8 +535,16 @@
       <c r="C6">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1159</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -480,8 +554,16 @@
       <c r="C7">
         <v>252</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>657</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -491,8 +573,16 @@
       <c r="C8">
         <v>252</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -502,8 +592,16 @@
       <c r="C9">
         <v>252</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -513,8 +611,16 @@
       <c r="C10">
         <v>252</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>992</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -524,8 +630,16 @@
       <c r="C11">
         <v>252</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1103</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -535,8 +649,16 @@
       <c r="C12">
         <v>252</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1215</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -546,8 +668,16 @@
       <c r="C13">
         <v>348</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>599</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -557,8 +687,16 @@
       <c r="C14">
         <v>348</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>712</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -568,8 +706,16 @@
       <c r="C15">
         <v>348</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>824</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -579,8 +725,16 @@
       <c r="C16">
         <v>348</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -590,8 +744,16 @@
       <c r="C17">
         <v>348</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>1047</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -601,8 +763,16 @@
       <c r="C18">
         <v>348</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>1157</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -612,8 +782,16 @@
       <c r="C19">
         <v>348</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>1269</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -623,8 +801,16 @@
       <c r="C20">
         <v>445</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -634,8 +820,16 @@
       <c r="C21">
         <v>445</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>656</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -645,8 +839,16 @@
       <c r="C22">
         <v>445</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -656,8 +858,16 @@
       <c r="C23">
         <v>445</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>879</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -667,8 +877,16 @@
       <c r="C24">
         <v>445</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>992</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -678,8 +896,16 @@
       <c r="C25">
         <v>445</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>1102</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -689,8 +915,16 @@
       <c r="C26">
         <v>445</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>1214</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -700,8 +934,16 @@
       <c r="C27">
         <v>445</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>1325</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -711,8 +953,16 @@
       <c r="C28">
         <v>543</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>491</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -722,8 +972,16 @@
       <c r="C29">
         <v>543</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>601</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -733,8 +991,16 @@
       <c r="C30">
         <v>543</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>713</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -744,8 +1010,16 @@
       <c r="C31">
         <v>543</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>824</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -755,8 +1029,16 @@
       <c r="C32">
         <v>543</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -766,8 +1048,16 @@
       <c r="C33">
         <v>543</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>1047</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -777,8 +1067,16 @@
       <c r="C34">
         <v>543</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>1157</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -788,8 +1086,16 @@
       <c r="C35">
         <v>543</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>1269</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -799,8 +1105,16 @@
       <c r="C36">
         <v>543</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>1380</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -810,8 +1124,16 @@
       <c r="C37">
         <v>640</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -821,8 +1143,16 @@
       <c r="C38">
         <v>640</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="1">
+        <f>B38-25</f>
+        <v>657</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -832,8 +1162,16 @@
       <c r="C39">
         <v>640</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -843,8 +1181,16 @@
       <c r="C40">
         <v>640</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -854,8 +1200,16 @@
       <c r="C41">
         <v>640</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>992</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -865,8 +1219,16 @@
       <c r="C42">
         <v>640</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>1103</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -876,8 +1238,16 @@
       <c r="C43">
         <v>640</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>1214</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -887,8 +1257,16 @@
       <c r="C44">
         <v>640</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>1326</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -898,8 +1276,16 @@
       <c r="C45">
         <v>735</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>611</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="1"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -909,8 +1295,16 @@
       <c r="C46">
         <v>735</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>713</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="1"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -920,8 +1314,16 @@
       <c r="C47">
         <v>735</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -931,8 +1333,16 @@
       <c r="C48">
         <v>735</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="1"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -942,8 +1352,16 @@
       <c r="C49">
         <v>735</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>1047</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="1"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -953,8 +1371,16 @@
       <c r="C50">
         <v>735</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>1159</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="1"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -964,8 +1390,16 @@
       <c r="C51">
         <v>735</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>1270</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="1"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -975,8 +1409,16 @@
       <c r="C52">
         <v>830</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="1">
+        <f t="shared" si="0"/>
+        <v>657</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="1"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -986,8 +1428,16 @@
       <c r="C53">
         <v>830</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="1">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="1"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -997,8 +1447,16 @@
       <c r="C54">
         <v>830</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="1">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="1"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1008,8 +1466,16 @@
       <c r="C55">
         <v>830</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>992</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="1"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1019,8 +1485,16 @@
       <c r="C56">
         <v>830</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>1102</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="1"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1030,8 +1504,16 @@
       <c r="C57">
         <v>830</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>1214</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="1"/>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1041,8 +1523,16 @@
       <c r="C58">
         <v>926</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>712</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="1"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1052,8 +1542,16 @@
       <c r="C59">
         <v>926</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>825</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="1"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1063,8 +1561,16 @@
       <c r="C60">
         <v>926</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>936</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="1"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1074,8 +1580,16 @@
       <c r="C61">
         <v>926</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>1047</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="1"/>
+        <v>901</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1085,8 +1599,17 @@
       <c r="C62">
         <v>926</v>
       </c>
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>1159</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="1"/>
+        <v>901</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>